--- a/variable_step_size/steepest_descent_function_2_variable.xlsx
+++ b/variable_step_size/steepest_descent_function_2_variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\Steepest Descent\variable_step_size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280789F2-1A85-4FC9-A0DD-D84028701376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DAE70F-523B-4C4B-8DAD-A5DB130E67EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2744,7 +2744,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>∇ f vs k</a:t>
+              <a:t>||∇ f || vs k</a:t>
             </a:r>
             <a:endParaRPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -6149,16 +6149,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6476,10 +6476,16 @@
   <dimension ref="A1:D433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
